--- a/xlsx/儒家_intext.xlsx
+++ b/xlsx/儒家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>儒教 (宗教)</t>
   </si>
   <si>
-    <t>政策_政策_行政_儒家</t>
+    <t>体育运动_体育运动_明成祖_儒家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81</t>
